--- a/data/tasks_data/9/1.xlsx
+++ b/data/tasks_data/9/1.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\К-ЕГЭ- 2021\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Лист3" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,12 +24,8 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -142,7 +133,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -194,7 +185,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -388,7 +379,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -396,15 +387,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y97"/>
+  <dimension ref="A1:AA97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D105" sqref="D105"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1:Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -475,12 +469,12 @@
         <v>0.91666666666666696</v>
       </c>
       <c r="Y1" s="1">
-        <v>0.95833333333333304</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+        <v>0.95833333333333404</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>43191</v>
+        <v>44287</v>
       </c>
       <c r="B2" s="4">
         <v>13.7</v>
@@ -519,19 +513,19 @@
         <v>22.6</v>
       </c>
       <c r="N2" s="4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O2" s="4">
         <v>22</v>
       </c>
       <c r="P2" s="4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Q2" s="4">
         <v>25.7</v>
       </c>
       <c r="R2" s="4">
-        <v>24.4</v>
+        <v>26.4</v>
       </c>
       <c r="S2" s="4">
         <v>25.4</v>
@@ -540,7 +534,7 @@
         <v>22.9</v>
       </c>
       <c r="U2" s="4">
-        <v>22.5</v>
+        <v>24.3</v>
       </c>
       <c r="V2" s="4">
         <v>19.8</v>
@@ -555,9 +549,9 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>43192</v>
+        <v>44288</v>
       </c>
       <c r="B3" s="4">
         <v>13.8</v>
@@ -569,7 +563,7 @@
         <v>12.8</v>
       </c>
       <c r="E3" s="4">
-        <v>12.9</v>
+        <v>14.8</v>
       </c>
       <c r="F3" s="4">
         <v>10.7</v>
@@ -596,16 +590,16 @@
         <v>19.899999999999999</v>
       </c>
       <c r="N3" s="4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O3" s="4">
         <v>21.2</v>
       </c>
       <c r="P3" s="4">
-        <v>24.8</v>
+        <v>26.8</v>
       </c>
       <c r="Q3" s="4">
-        <v>23.3</v>
+        <v>25.3</v>
       </c>
       <c r="R3" s="4">
         <v>26</v>
@@ -614,7 +608,7 @@
         <v>25.4</v>
       </c>
       <c r="T3" s="4">
-        <v>23.6</v>
+        <v>25.6</v>
       </c>
       <c r="U3" s="4">
         <v>22.6</v>
@@ -632,9 +626,9 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>43193</v>
+        <v>44289</v>
       </c>
       <c r="B4" s="4">
         <v>12.1</v>
@@ -646,7 +640,7 @@
         <v>14.3</v>
       </c>
       <c r="E4" s="4">
-        <v>12.9</v>
+        <v>14.8</v>
       </c>
       <c r="F4" s="4">
         <v>13.5</v>
@@ -673,22 +667,22 @@
         <v>21.6</v>
       </c>
       <c r="N4" s="4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O4" s="4">
         <v>21.2</v>
       </c>
       <c r="P4" s="4">
-        <v>23.7</v>
+        <v>25.7</v>
       </c>
       <c r="Q4" s="4">
-        <v>24.2</v>
+        <v>26.2</v>
       </c>
       <c r="R4" s="4">
         <v>25.9</v>
       </c>
       <c r="S4" s="4">
-        <v>23.5</v>
+        <v>25.5</v>
       </c>
       <c r="T4" s="4">
         <v>25.1</v>
@@ -708,10 +702,11 @@
       <c r="Y4" s="4">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA4" s="4"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>43194</v>
+        <v>44290</v>
       </c>
       <c r="B5" s="4">
         <v>12.6</v>
@@ -750,7 +745,7 @@
         <v>21.6</v>
       </c>
       <c r="N5" s="4">
-        <v>23.8</v>
+        <v>25.8</v>
       </c>
       <c r="O5" s="4">
         <v>21.6</v>
@@ -762,13 +757,13 @@
         <v>22.9</v>
       </c>
       <c r="R5" s="4">
-        <v>22.5</v>
+        <v>24.3</v>
       </c>
       <c r="S5" s="4">
-        <v>24.7</v>
+        <v>26.7</v>
       </c>
       <c r="T5" s="4">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="U5" s="4">
         <v>21.5</v>
@@ -785,10 +780,11 @@
       <c r="Y5" s="4">
         <v>15.6</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA5" s="4"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>43195</v>
+        <v>44291</v>
       </c>
       <c r="B6" s="4">
         <v>14.8</v>
@@ -803,7 +799,7 @@
         <v>14.4</v>
       </c>
       <c r="F6" s="4">
-        <v>12.9</v>
+        <v>14.8</v>
       </c>
       <c r="G6" s="4">
         <v>10.3</v>
@@ -827,7 +823,7 @@
         <v>20.7</v>
       </c>
       <c r="N6" s="4">
-        <v>23.1</v>
+        <v>25.1</v>
       </c>
       <c r="O6" s="4">
         <v>21.1</v>
@@ -839,13 +835,13 @@
         <v>22.1</v>
       </c>
       <c r="R6" s="4">
-        <v>24.5</v>
+        <v>26.5</v>
       </c>
       <c r="S6" s="4">
-        <v>23.1</v>
+        <v>25.1</v>
       </c>
       <c r="T6" s="4">
-        <v>22.5</v>
+        <v>24.3</v>
       </c>
       <c r="U6" s="4">
         <v>22</v>
@@ -863,9 +859,9 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>43196</v>
+        <v>44292</v>
       </c>
       <c r="B7" s="4">
         <v>15.1</v>
@@ -907,19 +903,19 @@
         <v>20</v>
       </c>
       <c r="O7" s="4">
-        <v>23.8</v>
+        <v>25.8</v>
       </c>
       <c r="P7" s="4">
         <v>21</v>
       </c>
       <c r="Q7" s="4">
-        <v>24.6</v>
+        <v>26.6</v>
       </c>
       <c r="R7" s="4">
-        <v>23.7</v>
+        <v>25.7</v>
       </c>
       <c r="S7" s="4">
-        <v>23.1</v>
+        <v>25.1</v>
       </c>
       <c r="T7" s="4">
         <v>25.2</v>
@@ -940,9 +936,9 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>43197</v>
+        <v>44293</v>
       </c>
       <c r="B8" s="4">
         <v>13.7</v>
@@ -981,7 +977,7 @@
         <v>21.6</v>
       </c>
       <c r="N8" s="4">
-        <v>23.3</v>
+        <v>25.3</v>
       </c>
       <c r="O8" s="4">
         <v>22.1</v>
@@ -990,16 +986,16 @@
         <v>22</v>
       </c>
       <c r="Q8" s="4">
-        <v>23.4</v>
+        <v>25.4</v>
       </c>
       <c r="R8" s="4">
-        <v>24.8</v>
+        <v>26.8</v>
       </c>
       <c r="S8" s="4">
         <v>25.1</v>
       </c>
       <c r="T8" s="4">
-        <v>24.6</v>
+        <v>26.6</v>
       </c>
       <c r="U8" s="4">
         <v>20.2</v>
@@ -1017,9 +1013,9 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>43198</v>
+        <v>44294</v>
       </c>
       <c r="B9" s="4">
         <v>12.7</v>
@@ -1064,13 +1060,13 @@
         <v>20.5</v>
       </c>
       <c r="P9" s="4">
-        <v>24.7</v>
+        <v>26.7</v>
       </c>
       <c r="Q9" s="4">
         <v>22.1</v>
       </c>
       <c r="R9" s="4">
-        <v>24.2</v>
+        <v>26.2</v>
       </c>
       <c r="S9" s="4">
         <v>25.6</v>
@@ -1093,10 +1089,11 @@
       <c r="Y9" s="4">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z9" s="4"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>43199</v>
+        <v>44295</v>
       </c>
       <c r="B10" s="4">
         <v>15.4</v>
@@ -1135,16 +1132,16 @@
         <v>21</v>
       </c>
       <c r="N10" s="4">
-        <v>23.4</v>
+        <v>25.4</v>
       </c>
       <c r="O10" s="4">
         <v>21.6</v>
       </c>
       <c r="P10" s="4">
-        <v>23.5</v>
+        <v>25.5</v>
       </c>
       <c r="Q10" s="4">
-        <v>24.7</v>
+        <v>26.7</v>
       </c>
       <c r="R10" s="4">
         <v>22.7</v>
@@ -1159,7 +1156,7 @@
         <v>21</v>
       </c>
       <c r="V10" s="4">
-        <v>18.3</v>
+        <v>11.3</v>
       </c>
       <c r="W10" s="4">
         <v>16.100000000000001</v>
@@ -1171,9 +1168,9 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>43200</v>
+        <v>44296</v>
       </c>
       <c r="B11" s="4">
         <v>15</v>
@@ -1212,7 +1209,7 @@
         <v>21</v>
       </c>
       <c r="N11" s="4">
-        <v>23.6</v>
+        <v>25.6</v>
       </c>
       <c r="O11" s="4">
         <v>21.7</v>
@@ -1230,7 +1227,7 @@
         <v>25.6</v>
       </c>
       <c r="T11" s="4">
-        <v>23.5</v>
+        <v>25.5</v>
       </c>
       <c r="U11" s="4">
         <v>19</v>
@@ -1248,9 +1245,9 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>43201</v>
+        <v>44297</v>
       </c>
       <c r="B12" s="4">
         <v>15.6</v>
@@ -1307,7 +1304,7 @@
         <v>22.8</v>
       </c>
       <c r="T12" s="4">
-        <v>23.8</v>
+        <v>25.8</v>
       </c>
       <c r="U12" s="4">
         <v>20.9</v>
@@ -1324,10 +1321,11 @@
       <c r="Y12" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA12" s="4"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>43202</v>
+        <v>44298</v>
       </c>
       <c r="B13" s="4">
         <v>12.7</v>
@@ -1369,19 +1367,19 @@
         <v>20.6</v>
       </c>
       <c r="O13" s="4">
-        <v>23.4</v>
+        <v>25.4</v>
       </c>
       <c r="P13" s="4">
-        <v>24.6</v>
+        <v>26.6</v>
       </c>
       <c r="Q13" s="4">
         <v>22.2</v>
       </c>
       <c r="R13" s="4">
-        <v>24.9</v>
+        <v>26.9</v>
       </c>
       <c r="S13" s="4">
-        <v>23.1</v>
+        <v>25.1</v>
       </c>
       <c r="T13" s="4">
         <v>25.5</v>
@@ -1401,10 +1399,11 @@
       <c r="Y13" s="4">
         <v>15.8</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA13" s="4"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>43203</v>
+        <v>44299</v>
       </c>
       <c r="B14" s="4">
         <v>12.5</v>
@@ -1455,13 +1454,13 @@
         <v>25.9</v>
       </c>
       <c r="R14" s="4">
-        <v>23.8</v>
+        <v>25.8</v>
       </c>
       <c r="S14" s="4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="T14" s="4">
-        <v>23.4</v>
+        <v>25.4</v>
       </c>
       <c r="U14" s="4">
         <v>21.7</v>
@@ -1479,9 +1478,9 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>43204</v>
+        <v>44300</v>
       </c>
       <c r="B15" s="4">
         <v>16</v>
@@ -1520,28 +1519,28 @@
         <v>21.2</v>
       </c>
       <c r="N15" s="4">
-        <v>23.3</v>
+        <v>25.3</v>
       </c>
       <c r="O15" s="4">
-        <v>23.2</v>
+        <v>25.2</v>
       </c>
       <c r="P15" s="4">
-        <v>24.2</v>
+        <v>26.2</v>
       </c>
       <c r="Q15" s="4">
         <v>22.2</v>
       </c>
       <c r="R15" s="4">
-        <v>24.9</v>
+        <v>26.9</v>
       </c>
       <c r="S15" s="4">
-        <v>24.5</v>
+        <v>26.5</v>
       </c>
       <c r="T15" s="4">
         <v>22</v>
       </c>
       <c r="U15" s="4">
-        <v>22.5</v>
+        <v>24.3</v>
       </c>
       <c r="V15" s="4">
         <v>20.7</v>
@@ -1556,9 +1555,9 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>43205</v>
+        <v>44301</v>
       </c>
       <c r="B16" s="4">
         <v>15.4</v>
@@ -1597,7 +1596,7 @@
         <v>22.2</v>
       </c>
       <c r="N16" s="4">
-        <v>23.3</v>
+        <v>25.3</v>
       </c>
       <c r="O16" s="4">
         <v>21.7</v>
@@ -1609,13 +1608,13 @@
         <v>22.7</v>
       </c>
       <c r="R16" s="4">
-        <v>24.1</v>
+        <v>28.1</v>
       </c>
       <c r="S16" s="4">
-        <v>23.6</v>
+        <v>25.6</v>
       </c>
       <c r="T16" s="4">
-        <v>24.9</v>
+        <v>26.9</v>
       </c>
       <c r="U16" s="4">
         <v>19.8</v>
@@ -1635,7 +1634,7 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>43206</v>
+        <v>44302</v>
       </c>
       <c r="B17" s="4">
         <v>15.4</v>
@@ -1674,7 +1673,7 @@
         <v>22.6</v>
       </c>
       <c r="N17" s="4">
-        <v>23.9</v>
+        <v>25.9</v>
       </c>
       <c r="O17" s="4">
         <v>20</v>
@@ -1683,16 +1682,16 @@
         <v>22.6</v>
       </c>
       <c r="Q17" s="4">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="R17" s="4">
-        <v>24.5</v>
+        <v>26.5</v>
       </c>
       <c r="S17" s="4">
-        <v>23.7</v>
+        <v>25.7</v>
       </c>
       <c r="T17" s="4">
-        <v>24.7</v>
+        <v>26.7</v>
       </c>
       <c r="U17" s="4">
         <v>21</v>
@@ -1712,7 +1711,7 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>43207</v>
+        <v>44303</v>
       </c>
       <c r="B18" s="4">
         <v>14.5</v>
@@ -1745,31 +1744,31 @@
         <v>20.399999999999999</v>
       </c>
       <c r="L18" s="4">
-        <v>18.3</v>
+        <v>11.3</v>
       </c>
       <c r="M18" s="4">
         <v>22.6</v>
       </c>
       <c r="N18" s="4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O18" s="4">
         <v>20.3</v>
       </c>
       <c r="P18" s="4">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="4">
         <v>22</v>
       </c>
       <c r="R18" s="4">
-        <v>23.5</v>
+        <v>25.5</v>
       </c>
       <c r="S18" s="4">
-        <v>25.2</v>
+        <v>27</v>
       </c>
       <c r="T18" s="4">
-        <v>24.1</v>
+        <v>28.1</v>
       </c>
       <c r="U18" s="4">
         <v>20</v>
@@ -1789,7 +1788,7 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>43208</v>
+        <v>44304</v>
       </c>
       <c r="B19" s="4">
         <v>13.2</v>
@@ -1801,7 +1800,7 @@
         <v>12.7</v>
       </c>
       <c r="E19" s="4">
-        <v>12.9</v>
+        <v>14.8</v>
       </c>
       <c r="F19" s="4">
         <v>10.6</v>
@@ -1828,13 +1827,13 @@
         <v>22.1</v>
       </c>
       <c r="N19" s="4">
-        <v>23.2</v>
+        <v>25.2</v>
       </c>
       <c r="O19" s="4">
         <v>20.7</v>
       </c>
       <c r="P19" s="4">
-        <v>24.2</v>
+        <v>26.2</v>
       </c>
       <c r="Q19" s="4">
         <v>22.9</v>
@@ -1843,10 +1842,10 @@
         <v>25.3</v>
       </c>
       <c r="S19" s="4">
-        <v>23.3</v>
+        <v>25.3</v>
       </c>
       <c r="T19" s="4">
-        <v>24.9</v>
+        <v>26.9</v>
       </c>
       <c r="U19" s="4">
         <v>20.8</v>
@@ -1866,7 +1865,7 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>43209</v>
+        <v>44305</v>
       </c>
       <c r="B20" s="4">
         <v>12.8</v>
@@ -1899,22 +1898,22 @@
         <v>17.600000000000001</v>
       </c>
       <c r="L20" s="4">
-        <v>18.3</v>
+        <v>11.3</v>
       </c>
       <c r="M20" s="4">
         <v>20.2</v>
       </c>
       <c r="N20" s="4">
-        <v>23.3</v>
+        <v>25.3</v>
       </c>
       <c r="O20" s="4">
         <v>22.6</v>
       </c>
       <c r="P20" s="4">
-        <v>24.3</v>
+        <v>26.3</v>
       </c>
       <c r="Q20" s="4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R20" s="4">
         <v>22.4</v>
@@ -1943,7 +1942,7 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>43210</v>
+        <v>44306</v>
       </c>
       <c r="B21" s="4">
         <v>12.3</v>
@@ -1970,7 +1969,7 @@
         <v>15.6</v>
       </c>
       <c r="J21" s="4">
-        <v>18.3</v>
+        <v>11.3</v>
       </c>
       <c r="K21" s="4">
         <v>17.2</v>
@@ -1988,13 +1987,13 @@
         <v>22.9</v>
       </c>
       <c r="P21" s="4">
-        <v>23.2</v>
+        <v>25.2</v>
       </c>
       <c r="Q21" s="4">
-        <v>24.4</v>
+        <v>26.4</v>
       </c>
       <c r="R21" s="4">
-        <v>23.6</v>
+        <v>25.6</v>
       </c>
       <c r="S21" s="4">
         <v>25.6</v>
@@ -2020,7 +2019,7 @@
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>43211</v>
+        <v>44307</v>
       </c>
       <c r="B22" s="4">
         <v>14.6</v>
@@ -2059,13 +2058,13 @@
         <v>20.8</v>
       </c>
       <c r="N22" s="4">
-        <v>23.2</v>
+        <v>25.2</v>
       </c>
       <c r="O22" s="4">
-        <v>22.5</v>
+        <v>24.3</v>
       </c>
       <c r="P22" s="4">
-        <v>23.5</v>
+        <v>25.5</v>
       </c>
       <c r="Q22" s="4">
         <v>22.3</v>
@@ -2074,10 +2073,10 @@
         <v>25.3</v>
       </c>
       <c r="S22" s="4">
-        <v>24.4</v>
+        <v>26.4</v>
       </c>
       <c r="T22" s="4">
-        <v>24.3</v>
+        <v>26.3</v>
       </c>
       <c r="U22" s="4">
         <v>19.2</v>
@@ -2097,7 +2096,7 @@
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>43212</v>
+        <v>44308</v>
       </c>
       <c r="B23" s="4">
         <v>13.5</v>
@@ -2139,7 +2138,7 @@
         <v>20.7</v>
       </c>
       <c r="O23" s="4">
-        <v>23.6</v>
+        <v>25.6</v>
       </c>
       <c r="P23" s="4">
         <v>25</v>
@@ -2148,7 +2147,7 @@
         <v>25.7</v>
       </c>
       <c r="R23" s="4">
-        <v>24.6</v>
+        <v>26.6</v>
       </c>
       <c r="S23" s="4">
         <v>22.4</v>
@@ -2174,7 +2173,7 @@
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>43213</v>
+        <v>44311</v>
       </c>
       <c r="B24" s="4">
         <v>13.3</v>
@@ -2216,7 +2215,7 @@
         <v>22.8</v>
       </c>
       <c r="O24" s="4">
-        <v>23.6</v>
+        <v>25.6</v>
       </c>
       <c r="P24" s="4">
         <v>22.7</v>
@@ -2251,7 +2250,7 @@
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>43214</v>
+        <v>44312</v>
       </c>
       <c r="B25" s="4">
         <v>14.7</v>
@@ -2296,19 +2295,19 @@
         <v>21.5</v>
       </c>
       <c r="P25" s="4">
-        <v>24.6</v>
+        <v>26.6</v>
       </c>
       <c r="Q25" s="4">
         <v>25.7</v>
       </c>
       <c r="R25" s="4">
-        <v>24.7</v>
+        <v>26.7</v>
       </c>
       <c r="S25" s="4">
         <v>26</v>
       </c>
       <c r="T25" s="4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="U25" s="4">
         <v>20.7</v>
@@ -2328,7 +2327,7 @@
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>43215</v>
+        <v>44311</v>
       </c>
       <c r="B26" s="4">
         <v>15.3</v>
@@ -2376,7 +2375,7 @@
         <v>22.7</v>
       </c>
       <c r="Q26" s="4">
-        <v>24.1</v>
+        <v>28.1</v>
       </c>
       <c r="R26" s="4">
         <v>25.3</v>
@@ -2405,7 +2404,7 @@
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>43216</v>
+        <v>44312</v>
       </c>
       <c r="B27" s="4">
         <v>14.6</v>
@@ -2444,7 +2443,7 @@
         <v>22.3</v>
       </c>
       <c r="N27" s="4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O27" s="4">
         <v>21</v>
@@ -2453,13 +2452,13 @@
         <v>22.9</v>
       </c>
       <c r="Q27" s="4">
-        <v>24.8</v>
+        <v>26.8</v>
       </c>
       <c r="R27" s="4">
         <v>22.7</v>
       </c>
       <c r="S27" s="4">
-        <v>24.2</v>
+        <v>26.2</v>
       </c>
       <c r="T27" s="4">
         <v>22.1</v>
@@ -2482,7 +2481,7 @@
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>43217</v>
+        <v>44313</v>
       </c>
       <c r="B28" s="4">
         <v>14.4</v>
@@ -2527,7 +2526,7 @@
         <v>21.2</v>
       </c>
       <c r="P28" s="4">
-        <v>23.5</v>
+        <v>25.5</v>
       </c>
       <c r="Q28" s="4">
         <v>25.6</v>
@@ -2536,10 +2535,10 @@
         <v>25.4</v>
       </c>
       <c r="S28" s="4">
-        <v>23.7</v>
+        <v>25.7</v>
       </c>
       <c r="T28" s="4">
-        <v>24.4</v>
+        <v>26.4</v>
       </c>
       <c r="U28" s="4">
         <v>19.899999999999999</v>
@@ -2559,7 +2558,7 @@
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>43218</v>
+        <v>44314</v>
       </c>
       <c r="B29" s="4">
         <v>13.8</v>
@@ -2604,19 +2603,19 @@
         <v>21.2</v>
       </c>
       <c r="P29" s="4">
-        <v>23.7</v>
+        <v>25.7</v>
       </c>
       <c r="Q29" s="4">
-        <v>23.3</v>
+        <v>25.3</v>
       </c>
       <c r="R29" s="4">
         <v>22.6</v>
       </c>
       <c r="S29" s="4">
-        <v>23.6</v>
+        <v>25.6</v>
       </c>
       <c r="T29" s="4">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="U29" s="4">
         <v>19.5</v>
@@ -2636,7 +2635,7 @@
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>43219</v>
+        <v>44315</v>
       </c>
       <c r="B30" s="4">
         <v>12</v>
@@ -2675,19 +2674,19 @@
         <v>20.5</v>
       </c>
       <c r="N30" s="4">
-        <v>23.7</v>
+        <v>25.7</v>
       </c>
       <c r="O30" s="4">
         <v>20.2</v>
       </c>
       <c r="P30" s="4">
-        <v>23.9</v>
+        <v>25.9</v>
       </c>
       <c r="Q30" s="4">
         <v>25.4</v>
       </c>
       <c r="R30" s="4">
-        <v>23.1</v>
+        <v>25.1</v>
       </c>
       <c r="S30" s="4">
         <v>25.8</v>
@@ -2713,7 +2712,7 @@
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>43220</v>
+        <v>44316</v>
       </c>
       <c r="B31" s="4">
         <v>14.8</v>
@@ -2761,19 +2760,19 @@
         <v>25</v>
       </c>
       <c r="Q31" s="4">
-        <v>23.8</v>
+        <v>25.8</v>
       </c>
       <c r="R31" s="4">
         <v>25.5</v>
       </c>
       <c r="S31" s="4">
-        <v>23.9</v>
+        <v>25.9</v>
       </c>
       <c r="T31" s="4">
         <v>25.7</v>
       </c>
       <c r="U31" s="4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="V31" s="4">
         <v>18.899999999999999</v>
@@ -2790,13 +2789,13 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>43221</v>
+        <v>44317</v>
       </c>
       <c r="B32" s="4">
         <v>17.8</v>
       </c>
       <c r="C32" s="4">
-        <v>18.3</v>
+        <v>11.3</v>
       </c>
       <c r="D32" s="4">
         <v>19.899999999999999</v>
@@ -2817,7 +2816,7 @@
         <v>19.2</v>
       </c>
       <c r="J32" s="4">
-        <v>23.2</v>
+        <v>25.2</v>
       </c>
       <c r="K32" s="4">
         <v>22</v>
@@ -2826,7 +2825,7 @@
         <v>25.8</v>
       </c>
       <c r="M32" s="4">
-        <v>24.1</v>
+        <v>28.1</v>
       </c>
       <c r="N32" s="4">
         <v>25</v>
@@ -2856,7 +2855,7 @@
         <v>22</v>
       </c>
       <c r="W32" s="4">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="X32" s="4">
         <v>18.2</v>
@@ -2867,7 +2866,7 @@
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>43222</v>
+        <v>44318</v>
       </c>
       <c r="B33" s="4">
         <v>19.7</v>
@@ -2894,10 +2893,10 @@
         <v>18.899999999999999</v>
       </c>
       <c r="J33" s="4">
-        <v>23.1</v>
+        <v>25.1</v>
       </c>
       <c r="K33" s="4">
-        <v>23.7</v>
+        <v>25.7</v>
       </c>
       <c r="L33" s="4">
         <v>25.2</v>
@@ -2930,7 +2929,7 @@
         <v>27.8</v>
       </c>
       <c r="V33" s="4">
-        <v>24.6</v>
+        <v>26.6</v>
       </c>
       <c r="W33" s="4">
         <v>22.9</v>
@@ -2944,7 +2943,7 @@
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>43223</v>
+        <v>44319</v>
       </c>
       <c r="B34" s="4">
         <v>19.3</v>
@@ -2953,7 +2952,7 @@
         <v>19.8</v>
       </c>
       <c r="D34" s="4">
-        <v>18.3</v>
+        <v>11.3</v>
       </c>
       <c r="E34" s="4">
         <v>18.399999999999999</v>
@@ -2962,7 +2961,7 @@
         <v>18.5</v>
       </c>
       <c r="G34" s="4">
-        <v>18.3</v>
+        <v>11.3</v>
       </c>
       <c r="H34" s="4">
         <v>16.600000000000001</v>
@@ -2971,7 +2970,7 @@
         <v>20.5</v>
       </c>
       <c r="J34" s="4">
-        <v>23.1</v>
+        <v>25.1</v>
       </c>
       <c r="K34" s="4">
         <v>25.1</v>
@@ -2980,7 +2979,7 @@
         <v>26.7</v>
       </c>
       <c r="M34" s="4">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N34" s="4">
         <v>25.7</v>
@@ -3007,7 +3006,7 @@
         <v>27.4</v>
       </c>
       <c r="V34" s="4">
-        <v>23.6</v>
+        <v>25.6</v>
       </c>
       <c r="W34" s="4">
         <v>22.8</v>
@@ -3021,7 +3020,7 @@
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>43224</v>
+        <v>44320</v>
       </c>
       <c r="B35" s="4">
         <v>17.2</v>
@@ -3048,13 +3047,13 @@
         <v>20.8</v>
       </c>
       <c r="J35" s="4">
-        <v>23.4</v>
+        <v>25.4</v>
       </c>
       <c r="K35" s="4">
-        <v>23.1</v>
+        <v>25.1</v>
       </c>
       <c r="L35" s="4">
-        <v>24.3</v>
+        <v>26.3</v>
       </c>
       <c r="M35" s="4">
         <v>25.6</v>
@@ -3075,7 +3074,7 @@
         <v>30.4</v>
       </c>
       <c r="S35" s="4">
-        <v>28.3</v>
+        <v>21.3</v>
       </c>
       <c r="T35" s="4">
         <v>30.3</v>
@@ -3098,7 +3097,7 @@
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>43225</v>
+        <v>44321</v>
       </c>
       <c r="B36" s="4">
         <v>18.8</v>
@@ -3110,7 +3109,7 @@
         <v>18.5</v>
       </c>
       <c r="E36" s="4">
-        <v>18.3</v>
+        <v>11.3</v>
       </c>
       <c r="F36" s="4">
         <v>19</v>
@@ -3131,7 +3130,7 @@
         <v>22.8</v>
       </c>
       <c r="L36" s="4">
-        <v>24.4</v>
+        <v>26.4</v>
       </c>
       <c r="M36" s="4">
         <v>27.2</v>
@@ -3158,13 +3157,13 @@
         <v>30.2</v>
       </c>
       <c r="U36" s="4">
-        <v>24.4</v>
+        <v>26.4</v>
       </c>
       <c r="V36" s="4">
-        <v>22.5</v>
+        <v>24.3</v>
       </c>
       <c r="W36" s="4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="X36" s="4">
         <v>21.2</v>
@@ -3175,7 +3174,7 @@
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>43226</v>
+        <v>44322</v>
       </c>
       <c r="B37" s="4">
         <v>21</v>
@@ -3205,10 +3204,10 @@
         <v>20.8</v>
       </c>
       <c r="K37" s="4">
-        <v>23.6</v>
+        <v>25.6</v>
       </c>
       <c r="L37" s="4">
-        <v>23.6</v>
+        <v>25.6</v>
       </c>
       <c r="M37" s="4">
         <v>27.2</v>
@@ -3238,13 +3237,13 @@
         <v>25.7</v>
       </c>
       <c r="V37" s="4">
-        <v>23.6</v>
+        <v>25.6</v>
       </c>
       <c r="W37" s="4">
-        <v>23.8</v>
+        <v>25.8</v>
       </c>
       <c r="X37" s="4">
-        <v>18.3</v>
+        <v>11.3</v>
       </c>
       <c r="Y37" s="4">
         <v>21.1</v>
@@ -3252,7 +3251,7 @@
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>43227</v>
+        <v>44323</v>
       </c>
       <c r="B38" s="4">
         <v>20.3</v>
@@ -3285,7 +3284,7 @@
         <v>22</v>
       </c>
       <c r="L38" s="4">
-        <v>24.4</v>
+        <v>26.4</v>
       </c>
       <c r="M38" s="4">
         <v>25.5</v>
@@ -3315,7 +3314,7 @@
         <v>26.6</v>
       </c>
       <c r="V38" s="4">
-        <v>24.9</v>
+        <v>26.9</v>
       </c>
       <c r="W38" s="4">
         <v>20.7</v>
@@ -3329,7 +3328,7 @@
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>43228</v>
+        <v>44324</v>
       </c>
       <c r="B39" s="4">
         <v>20.100000000000001</v>
@@ -3356,13 +3355,13 @@
         <v>21.7</v>
       </c>
       <c r="J39" s="4">
-        <v>23.1</v>
+        <v>25.1</v>
       </c>
       <c r="K39" s="4">
         <v>22.6</v>
       </c>
       <c r="L39" s="4">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M39" s="4">
         <v>27.1</v>
@@ -3392,13 +3391,13 @@
         <v>26.4</v>
       </c>
       <c r="V39" s="4">
-        <v>24.7</v>
+        <v>26.7</v>
       </c>
       <c r="W39" s="4">
         <v>20</v>
       </c>
       <c r="X39" s="4">
-        <v>18.3</v>
+        <v>11.3</v>
       </c>
       <c r="Y39" s="4">
         <v>19.3</v>
@@ -3406,7 +3405,7 @@
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>43229</v>
+        <v>44325</v>
       </c>
       <c r="B40" s="4">
         <v>20.399999999999999</v>
@@ -3433,7 +3432,7 @@
         <v>20</v>
       </c>
       <c r="J40" s="4">
-        <v>22.5</v>
+        <v>24.3</v>
       </c>
       <c r="K40" s="4">
         <v>22.9</v>
@@ -3466,13 +3465,13 @@
         <v>30.6</v>
       </c>
       <c r="U40" s="4">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="V40" s="4">
         <v>22</v>
       </c>
       <c r="W40" s="4">
-        <v>23.7</v>
+        <v>25.7</v>
       </c>
       <c r="X40" s="4">
         <v>21.5</v>
@@ -3483,7 +3482,7 @@
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>43230</v>
+        <v>44326</v>
       </c>
       <c r="B41" s="4">
         <v>18.8</v>
@@ -3516,7 +3515,7 @@
         <v>25.2</v>
       </c>
       <c r="L41" s="4">
-        <v>23.9</v>
+        <v>25.9</v>
       </c>
       <c r="M41" s="4">
         <v>25.3</v>
@@ -3560,7 +3559,7 @@
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>43231</v>
+        <v>44327</v>
       </c>
       <c r="B42" s="4">
         <v>19</v>
@@ -3590,7 +3589,7 @@
         <v>20.100000000000001</v>
       </c>
       <c r="K42" s="4">
-        <v>23.9</v>
+        <v>25.9</v>
       </c>
       <c r="L42" s="4">
         <v>25.7</v>
@@ -3637,7 +3636,7 @@
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>43232</v>
+        <v>44328</v>
       </c>
       <c r="B43" s="4">
         <v>18</v>
@@ -3664,7 +3663,7 @@
         <v>18.8</v>
       </c>
       <c r="J43" s="4">
-        <v>23.4</v>
+        <v>25.4</v>
       </c>
       <c r="K43" s="4">
         <v>25</v>
@@ -3700,7 +3699,7 @@
         <v>26.6</v>
       </c>
       <c r="V43" s="4">
-        <v>23.6</v>
+        <v>25.6</v>
       </c>
       <c r="W43" s="4">
         <v>21.7</v>
@@ -3714,7 +3713,7 @@
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>43233</v>
+        <v>44329</v>
       </c>
       <c r="B44" s="4">
         <v>17.3</v>
@@ -3753,7 +3752,7 @@
         <v>26.9</v>
       </c>
       <c r="N44" s="4">
-        <v>28.3</v>
+        <v>21.3</v>
       </c>
       <c r="O44" s="4">
         <v>26.8</v>
@@ -3780,7 +3779,7 @@
         <v>22.6</v>
       </c>
       <c r="W44" s="4">
-        <v>23.4</v>
+        <v>25.4</v>
       </c>
       <c r="X44" s="4">
         <v>18.100000000000001</v>
@@ -3791,7 +3790,7 @@
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>43234</v>
+        <v>44330</v>
       </c>
       <c r="B45" s="4">
         <v>20.3</v>
@@ -3821,16 +3820,16 @@
         <v>20.8</v>
       </c>
       <c r="K45" s="4">
-        <v>23.7</v>
+        <v>25.7</v>
       </c>
       <c r="L45" s="4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M45" s="4">
-        <v>26.1</v>
+        <v>28.1</v>
       </c>
       <c r="N45" s="4">
-        <v>26.1</v>
+        <v>28.1</v>
       </c>
       <c r="O45" s="4">
         <v>26.2</v>
@@ -3839,7 +3838,7 @@
         <v>26.2</v>
       </c>
       <c r="Q45" s="4">
-        <v>28.3</v>
+        <v>21.3</v>
       </c>
       <c r="R45" s="4">
         <v>30.9</v>
@@ -3868,7 +3867,7 @@
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>43235</v>
+        <v>44331</v>
       </c>
       <c r="B46" s="4">
         <v>18.600000000000001</v>
@@ -3895,7 +3894,7 @@
         <v>21.8</v>
       </c>
       <c r="J46" s="4">
-        <v>23.7</v>
+        <v>25.7</v>
       </c>
       <c r="K46" s="4">
         <v>25.8</v>
@@ -3931,7 +3930,7 @@
         <v>25.9</v>
       </c>
       <c r="V46" s="4">
-        <v>24.4</v>
+        <v>26.4</v>
       </c>
       <c r="W46" s="4">
         <v>22.9</v>
@@ -3945,7 +3944,7 @@
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>43236</v>
+        <v>44332</v>
       </c>
       <c r="B47" s="4">
         <v>20.5</v>
@@ -3978,16 +3977,16 @@
         <v>25.5</v>
       </c>
       <c r="L47" s="4">
-        <v>24.7</v>
+        <v>26.7</v>
       </c>
       <c r="M47" s="4">
-        <v>24.8</v>
+        <v>26.8</v>
       </c>
       <c r="N47" s="4">
         <v>27.6</v>
       </c>
       <c r="O47" s="4">
-        <v>28.3</v>
+        <v>21.3</v>
       </c>
       <c r="P47" s="4">
         <v>29.5</v>
@@ -4022,7 +4021,7 @@
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>43237</v>
+        <v>44333</v>
       </c>
       <c r="B48" s="4">
         <v>19.5</v>
@@ -4049,7 +4048,7 @@
         <v>20.100000000000001</v>
       </c>
       <c r="J48" s="4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K48" s="4">
         <v>25.9</v>
@@ -4082,7 +4081,7 @@
         <v>27.5</v>
       </c>
       <c r="U48" s="4">
-        <v>24.5</v>
+        <v>26.5</v>
       </c>
       <c r="V48" s="4">
         <v>22.4</v>
@@ -4099,7 +4098,7 @@
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>43238</v>
+        <v>44334</v>
       </c>
       <c r="B49" s="4">
         <v>17.3</v>
@@ -4176,7 +4175,7 @@
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>43239</v>
+        <v>44335</v>
       </c>
       <c r="B50" s="4">
         <v>18.8</v>
@@ -4188,7 +4187,7 @@
         <v>17.3</v>
       </c>
       <c r="E50" s="4">
-        <v>18.3</v>
+        <v>11.3</v>
       </c>
       <c r="F50" s="4">
         <v>18</v>
@@ -4209,7 +4208,7 @@
         <v>26</v>
       </c>
       <c r="L50" s="4">
-        <v>26.1</v>
+        <v>28.1</v>
       </c>
       <c r="M50" s="4">
         <v>26.5</v>
@@ -4233,7 +4232,7 @@
         <v>28</v>
       </c>
       <c r="T50" s="4">
-        <v>28.3</v>
+        <v>21.3</v>
       </c>
       <c r="U50" s="4">
         <v>25.7</v>
@@ -4242,7 +4241,7 @@
         <v>22.9</v>
       </c>
       <c r="W50" s="4">
-        <v>23.5</v>
+        <v>25.5</v>
       </c>
       <c r="X50" s="4">
         <v>19.2</v>
@@ -4253,7 +4252,7 @@
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>43240</v>
+        <v>44336</v>
       </c>
       <c r="B51" s="4">
         <v>17.5</v>
@@ -4289,7 +4288,7 @@
         <v>25.8</v>
       </c>
       <c r="M51" s="4">
-        <v>24.2</v>
+        <v>26.2</v>
       </c>
       <c r="N51" s="4">
         <v>25.7</v>
@@ -4330,7 +4329,7 @@
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>43241</v>
+        <v>44337</v>
       </c>
       <c r="B52" s="4">
         <v>20.2</v>
@@ -4363,7 +4362,7 @@
         <v>25.7</v>
       </c>
       <c r="L52" s="4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M52" s="4">
         <v>27.7</v>
@@ -4407,7 +4406,7 @@
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>43242</v>
+        <v>44338</v>
       </c>
       <c r="B53" s="4">
         <v>20.2</v>
@@ -4431,19 +4430,19 @@
         <v>14.2</v>
       </c>
       <c r="I53" s="4">
-        <v>18.3</v>
+        <v>11.3</v>
       </c>
       <c r="J53" s="4">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K53" s="4">
         <v>22</v>
       </c>
       <c r="L53" s="4">
-        <v>23.2</v>
+        <v>25.2</v>
       </c>
       <c r="M53" s="4">
-        <v>24.3</v>
+        <v>26.3</v>
       </c>
       <c r="N53" s="4">
         <v>27.5</v>
@@ -4484,16 +4483,16 @@
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>43243</v>
+        <v>44341</v>
       </c>
       <c r="B54" s="4">
         <v>17.399999999999999</v>
       </c>
       <c r="C54" s="4">
-        <v>18.3</v>
+        <v>11.3</v>
       </c>
       <c r="D54" s="4">
-        <v>18.3</v>
+        <v>11.3</v>
       </c>
       <c r="E54" s="4">
         <v>18.399999999999999</v>
@@ -4514,7 +4513,7 @@
         <v>22.8</v>
       </c>
       <c r="K54" s="4">
-        <v>23.5</v>
+        <v>25.5</v>
       </c>
       <c r="L54" s="4">
         <v>25.8</v>
@@ -4523,7 +4522,7 @@
         <v>27.2</v>
       </c>
       <c r="N54" s="4">
-        <v>28.3</v>
+        <v>21.3</v>
       </c>
       <c r="O54" s="4">
         <v>26.5</v>
@@ -4550,7 +4549,7 @@
         <v>25.3</v>
       </c>
       <c r="W54" s="4">
-        <v>23.6</v>
+        <v>25.6</v>
       </c>
       <c r="X54" s="4">
         <v>21.9</v>
@@ -4561,7 +4560,7 @@
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>43244</v>
+        <v>44342</v>
       </c>
       <c r="B55" s="4">
         <v>17.399999999999999</v>
@@ -4588,16 +4587,16 @@
         <v>18.2</v>
       </c>
       <c r="J55" s="4">
-        <v>23.7</v>
+        <v>25.7</v>
       </c>
       <c r="K55" s="4">
-        <v>24.3</v>
+        <v>26.3</v>
       </c>
       <c r="L55" s="4">
-        <v>23.3</v>
+        <v>25.3</v>
       </c>
       <c r="M55" s="4">
-        <v>24.8</v>
+        <v>26.8</v>
       </c>
       <c r="N55" s="4">
         <v>25.2</v>
@@ -4621,10 +4620,10 @@
         <v>30</v>
       </c>
       <c r="U55" s="4">
-        <v>24.9</v>
+        <v>26.9</v>
       </c>
       <c r="V55" s="4">
-        <v>24.4</v>
+        <v>26.4</v>
       </c>
       <c r="W55" s="4">
         <v>21.6</v>
@@ -4638,7 +4637,7 @@
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>43245</v>
+        <v>44341</v>
       </c>
       <c r="B56" s="4">
         <v>18.600000000000001</v>
@@ -4665,16 +4664,16 @@
         <v>20.5</v>
       </c>
       <c r="J56" s="4">
-        <v>23.3</v>
+        <v>25.3</v>
       </c>
       <c r="K56" s="4">
-        <v>24.7</v>
+        <v>26.7</v>
       </c>
       <c r="L56" s="4">
         <v>26.6</v>
       </c>
       <c r="M56" s="4">
-        <v>24.4</v>
+        <v>26.4</v>
       </c>
       <c r="N56" s="4">
         <v>28.5</v>
@@ -4683,7 +4682,7 @@
         <v>26.9</v>
       </c>
       <c r="P56" s="4">
-        <v>26.1</v>
+        <v>28.1</v>
       </c>
       <c r="Q56" s="4">
         <v>27.9</v>
@@ -4707,7 +4706,7 @@
         <v>22.9</v>
       </c>
       <c r="X56" s="4">
-        <v>18.3</v>
+        <v>11.3</v>
       </c>
       <c r="Y56" s="4">
         <v>19.100000000000001</v>
@@ -4715,7 +4714,7 @@
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>43246</v>
+        <v>44342</v>
       </c>
       <c r="B57" s="4">
         <v>20</v>
@@ -4742,10 +4741,10 @@
         <v>20.9</v>
       </c>
       <c r="J57" s="4">
-        <v>23.7</v>
+        <v>25.7</v>
       </c>
       <c r="K57" s="4">
-        <v>23.9</v>
+        <v>25.9</v>
       </c>
       <c r="L57" s="4">
         <v>26.3</v>
@@ -4778,10 +4777,10 @@
         <v>27.5</v>
       </c>
       <c r="V57" s="4">
-        <v>24.3</v>
+        <v>26.3</v>
       </c>
       <c r="W57" s="4">
-        <v>23.5</v>
+        <v>25.5</v>
       </c>
       <c r="X57" s="4">
         <v>20.7</v>
@@ -4792,7 +4791,7 @@
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>43247</v>
+        <v>44343</v>
       </c>
       <c r="B58" s="4">
         <v>20.9</v>
@@ -4822,7 +4821,7 @@
         <v>22.3</v>
       </c>
       <c r="K58" s="4">
-        <v>22.5</v>
+        <v>24.3</v>
       </c>
       <c r="L58" s="4">
         <v>25.8</v>
@@ -4855,7 +4854,7 @@
         <v>25.6</v>
       </c>
       <c r="V58" s="4">
-        <v>23.1</v>
+        <v>25.1</v>
       </c>
       <c r="W58" s="4">
         <v>20.9</v>
@@ -4869,7 +4868,7 @@
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>43248</v>
+        <v>44344</v>
       </c>
       <c r="B59" s="4">
         <v>19.899999999999999</v>
@@ -4899,7 +4898,7 @@
         <v>21.6</v>
       </c>
       <c r="K59" s="4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L59" s="4">
         <v>25.9</v>
@@ -4926,7 +4925,7 @@
         <v>29.7</v>
       </c>
       <c r="T59" s="4">
-        <v>28.3</v>
+        <v>21.3</v>
       </c>
       <c r="U59" s="4">
         <v>25.4</v>
@@ -4935,7 +4934,7 @@
         <v>25.2</v>
       </c>
       <c r="W59" s="4">
-        <v>23.3</v>
+        <v>25.3</v>
       </c>
       <c r="X59" s="4">
         <v>20.100000000000001</v>
@@ -4946,7 +4945,7 @@
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>43249</v>
+        <v>44345</v>
       </c>
       <c r="B60" s="4">
         <v>20.7</v>
@@ -4976,10 +4975,10 @@
         <v>22.3</v>
       </c>
       <c r="K60" s="4">
-        <v>24.4</v>
+        <v>26.4</v>
       </c>
       <c r="L60" s="4">
-        <v>24.6</v>
+        <v>26.6</v>
       </c>
       <c r="M60" s="4">
         <v>27.1</v>
@@ -5009,7 +5008,7 @@
         <v>27.4</v>
       </c>
       <c r="V60" s="4">
-        <v>24.9</v>
+        <v>26.9</v>
       </c>
       <c r="W60" s="4">
         <v>22.1</v>
@@ -5023,7 +5022,7 @@
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>43250</v>
+        <v>44346</v>
       </c>
       <c r="B61" s="4">
         <v>20.6</v>
@@ -5050,13 +5049,13 @@
         <v>18</v>
       </c>
       <c r="J61" s="4">
-        <v>23.7</v>
+        <v>25.7</v>
       </c>
       <c r="K61" s="4">
-        <v>23.4</v>
+        <v>25.4</v>
       </c>
       <c r="L61" s="4">
-        <v>23.1</v>
+        <v>25.1</v>
       </c>
       <c r="M61" s="4">
         <v>27.4</v>
@@ -5100,7 +5099,7 @@
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>43251</v>
+        <v>44347</v>
       </c>
       <c r="B62" s="4">
         <v>19.2</v>
@@ -5177,7 +5176,7 @@
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>43252</v>
+        <v>44348</v>
       </c>
       <c r="B63" s="4">
         <v>27</v>
@@ -5186,19 +5185,19 @@
         <v>27.8</v>
       </c>
       <c r="D63" s="4">
-        <v>24.6</v>
+        <v>26.6</v>
       </c>
       <c r="E63" s="4">
         <v>27.2</v>
       </c>
       <c r="F63" s="4">
-        <v>23.8</v>
+        <v>25.8</v>
       </c>
       <c r="G63" s="4">
-        <v>23.6</v>
+        <v>25.6</v>
       </c>
       <c r="H63" s="4">
-        <v>23.9</v>
+        <v>25.9</v>
       </c>
       <c r="I63" s="4">
         <v>26.9</v>
@@ -5254,7 +5253,7 @@
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>43253</v>
+        <v>44349</v>
       </c>
       <c r="B64" s="4">
         <v>27.1</v>
@@ -5269,10 +5268,10 @@
         <v>27.2</v>
       </c>
       <c r="F64" s="4">
-        <v>24.6</v>
+        <v>26.6</v>
       </c>
       <c r="G64" s="4">
-        <v>24.8</v>
+        <v>26.8</v>
       </c>
       <c r="H64" s="4">
         <v>22.4</v>
@@ -5323,7 +5322,7 @@
         <v>29.1</v>
       </c>
       <c r="X64" s="4">
-        <v>28.3</v>
+        <v>21.3</v>
       </c>
       <c r="Y64" s="4">
         <v>27.6</v>
@@ -5331,19 +5330,19 @@
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>43254</v>
+        <v>44350</v>
       </c>
       <c r="B65" s="4">
-        <v>24.9</v>
+        <v>26.9</v>
       </c>
       <c r="C65" s="4">
-        <v>24.3</v>
+        <v>26.3</v>
       </c>
       <c r="D65" s="4">
         <v>26.3</v>
       </c>
       <c r="E65" s="4">
-        <v>24.4</v>
+        <v>26.4</v>
       </c>
       <c r="F65" s="4">
         <v>22.9</v>
@@ -5408,7 +5407,7 @@
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>43255</v>
+        <v>44351</v>
       </c>
       <c r="B66" s="4">
         <v>25.5</v>
@@ -5417,13 +5416,13 @@
         <v>26.9</v>
       </c>
       <c r="D66" s="4">
-        <v>24.7</v>
+        <v>26.7</v>
       </c>
       <c r="E66" s="4">
         <v>27.8</v>
       </c>
       <c r="F66" s="4">
-        <v>24.1</v>
+        <v>28.1</v>
       </c>
       <c r="G66" s="4">
         <v>25.8</v>
@@ -5485,7 +5484,7 @@
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>43256</v>
+        <v>44352</v>
       </c>
       <c r="B67" s="4">
         <v>25.9</v>
@@ -5494,22 +5493,22 @@
         <v>26.6</v>
       </c>
       <c r="D67" s="4">
-        <v>24.8</v>
+        <v>26.8</v>
       </c>
       <c r="E67" s="4">
         <v>28</v>
       </c>
       <c r="F67" s="4">
-        <v>23.5</v>
+        <v>25.5</v>
       </c>
       <c r="G67" s="4">
-        <v>23.2</v>
+        <v>25.2</v>
       </c>
       <c r="H67" s="4">
-        <v>22.5</v>
+        <v>24.3</v>
       </c>
       <c r="I67" s="4">
-        <v>26.1</v>
+        <v>28.1</v>
       </c>
       <c r="J67" s="4">
         <v>27.6</v>
@@ -5557,27 +5556,27 @@
         <v>27.8</v>
       </c>
       <c r="Y67" s="4">
-        <v>28.3</v>
+        <v>21.3</v>
       </c>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>43257</v>
+        <v>44353</v>
       </c>
       <c r="B68" s="4">
-        <v>24.7</v>
+        <v>26.7</v>
       </c>
       <c r="C68" s="4">
         <v>27.6</v>
       </c>
       <c r="D68" s="4">
-        <v>24.9</v>
+        <v>26.9</v>
       </c>
       <c r="E68" s="4">
         <v>25.9</v>
       </c>
       <c r="F68" s="4">
-        <v>24.3</v>
+        <v>26.3</v>
       </c>
       <c r="G68" s="4">
         <v>22.1</v>
@@ -5628,7 +5627,7 @@
         <v>31.6</v>
       </c>
       <c r="W68" s="4">
-        <v>28.3</v>
+        <v>21.3</v>
       </c>
       <c r="X68" s="4">
         <v>25.9</v>
@@ -5639,7 +5638,7 @@
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>43258</v>
+        <v>44354</v>
       </c>
       <c r="B69" s="4">
         <v>27.1</v>
@@ -5651,7 +5650,7 @@
         <v>25.1</v>
       </c>
       <c r="E69" s="4">
-        <v>24.4</v>
+        <v>26.4</v>
       </c>
       <c r="F69" s="4">
         <v>22.9</v>
@@ -5716,22 +5715,22 @@
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>43259</v>
+        <v>44355</v>
       </c>
       <c r="B70" s="4">
         <v>26.7</v>
       </c>
       <c r="C70" s="4">
-        <v>24.8</v>
+        <v>26.8</v>
       </c>
       <c r="D70" s="4">
-        <v>24.6</v>
+        <v>26.6</v>
       </c>
       <c r="E70" s="4">
-        <v>24.7</v>
+        <v>26.7</v>
       </c>
       <c r="F70" s="4">
-        <v>24.7</v>
+        <v>26.7</v>
       </c>
       <c r="G70" s="4">
         <v>25.3</v>
@@ -5793,13 +5792,13 @@
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>43260</v>
+        <v>44356</v>
       </c>
       <c r="B71" s="4">
         <v>27.3</v>
       </c>
       <c r="C71" s="4">
-        <v>24.9</v>
+        <v>26.9</v>
       </c>
       <c r="D71" s="4">
         <v>26</v>
@@ -5808,13 +5807,13 @@
         <v>26.2</v>
       </c>
       <c r="F71" s="4">
-        <v>23.6</v>
+        <v>25.6</v>
       </c>
       <c r="G71" s="4">
-        <v>24.9</v>
+        <v>26.9</v>
       </c>
       <c r="H71" s="4">
-        <v>23.3</v>
+        <v>25.3</v>
       </c>
       <c r="I71" s="4">
         <v>27</v>
@@ -5870,7 +5869,7 @@
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>43261</v>
+        <v>44357</v>
       </c>
       <c r="B72" s="4">
         <v>26</v>
@@ -5891,7 +5890,7 @@
         <v>25.2</v>
       </c>
       <c r="H72" s="4">
-        <v>22.5</v>
+        <v>24.3</v>
       </c>
       <c r="I72" s="4">
         <v>27.2</v>
@@ -5936,7 +5935,7 @@
         <v>29.6</v>
       </c>
       <c r="W72" s="4">
-        <v>28.3</v>
+        <v>21.3</v>
       </c>
       <c r="X72" s="4">
         <v>26.5</v>
@@ -5947,13 +5946,13 @@
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>43262</v>
+        <v>44358</v>
       </c>
       <c r="B73" s="4">
         <v>27.1</v>
       </c>
       <c r="C73" s="4">
-        <v>24.8</v>
+        <v>26.8</v>
       </c>
       <c r="D73" s="4">
         <v>25.3</v>
@@ -5962,7 +5961,7 @@
         <v>27.7</v>
       </c>
       <c r="F73" s="4">
-        <v>24.9</v>
+        <v>26.9</v>
       </c>
       <c r="G73" s="4">
         <v>25.7</v>
@@ -6024,7 +6023,7 @@
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>43263</v>
+        <v>44359</v>
       </c>
       <c r="B74" s="4">
         <v>26.4</v>
@@ -6033,7 +6032,7 @@
         <v>27.7</v>
       </c>
       <c r="D74" s="4">
-        <v>24.1</v>
+        <v>28.1</v>
       </c>
       <c r="E74" s="4">
         <v>25.9</v>
@@ -6101,22 +6100,22 @@
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>43264</v>
+        <v>44360</v>
       </c>
       <c r="B75" s="4">
         <v>25.9</v>
       </c>
       <c r="C75" s="4">
-        <v>24.4</v>
+        <v>26.4</v>
       </c>
       <c r="D75" s="4">
         <v>26.8</v>
       </c>
       <c r="E75" s="4">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F75" s="4">
-        <v>23.3</v>
+        <v>25.3</v>
       </c>
       <c r="G75" s="4">
         <v>22.3</v>
@@ -6178,7 +6177,7 @@
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>43265</v>
+        <v>44361</v>
       </c>
       <c r="B76" s="4">
         <v>26.6</v>
@@ -6187,7 +6186,7 @@
         <v>27.4</v>
       </c>
       <c r="D76" s="4">
-        <v>24.9</v>
+        <v>26.9</v>
       </c>
       <c r="E76" s="4">
         <v>25.3</v>
@@ -6255,10 +6254,10 @@
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>43266</v>
+        <v>44362</v>
       </c>
       <c r="B77" s="4">
-        <v>24.9</v>
+        <v>26.9</v>
       </c>
       <c r="C77" s="4">
         <v>27.5</v>
@@ -6267,13 +6266,13 @@
         <v>25.2</v>
       </c>
       <c r="E77" s="4">
-        <v>24.1</v>
+        <v>28.1</v>
       </c>
       <c r="F77" s="4">
-        <v>24.7</v>
+        <v>26.7</v>
       </c>
       <c r="G77" s="4">
-        <v>23.1</v>
+        <v>25.1</v>
       </c>
       <c r="H77" s="4">
         <v>20.2</v>
@@ -6332,7 +6331,7 @@
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>43267</v>
+        <v>44363</v>
       </c>
       <c r="B78" s="4">
         <v>25.2</v>
@@ -6409,7 +6408,7 @@
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>43268</v>
+        <v>44364</v>
       </c>
       <c r="B79" s="4">
         <v>26.5</v>
@@ -6424,13 +6423,13 @@
         <v>27.8</v>
       </c>
       <c r="F79" s="4">
-        <v>23.2</v>
+        <v>25.2</v>
       </c>
       <c r="G79" s="4">
         <v>22.1</v>
       </c>
       <c r="H79" s="4">
-        <v>22.5</v>
+        <v>24.3</v>
       </c>
       <c r="I79" s="4">
         <v>27.7</v>
@@ -6486,7 +6485,7 @@
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>43269</v>
+        <v>44365</v>
       </c>
       <c r="B80" s="4">
         <v>26.2</v>
@@ -6543,7 +6542,7 @@
         <v>36</v>
       </c>
       <c r="T80" s="4">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U80" s="4">
         <v>31.1</v>
@@ -6563,7 +6562,7 @@
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>43270</v>
+        <v>44366</v>
       </c>
       <c r="B81" s="4">
         <v>27.8</v>
@@ -6572,7 +6571,7 @@
         <v>25.7</v>
       </c>
       <c r="D81" s="4">
-        <v>26.1</v>
+        <v>28.1</v>
       </c>
       <c r="E81" s="4">
         <v>27.1</v>
@@ -6581,10 +6580,10 @@
         <v>25.8</v>
       </c>
       <c r="G81" s="4">
-        <v>24.4</v>
+        <v>26.4</v>
       </c>
       <c r="H81" s="4">
-        <v>22.5</v>
+        <v>24.3</v>
       </c>
       <c r="I81" s="4">
         <v>27.3</v>
@@ -6629,7 +6628,7 @@
         <v>32.4</v>
       </c>
       <c r="W81" s="4">
-        <v>28.3</v>
+        <v>21.3</v>
       </c>
       <c r="X81" s="4">
         <v>28.2</v>
@@ -6640,25 +6639,25 @@
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>43271</v>
+        <v>44367</v>
       </c>
       <c r="B82" s="4">
-        <v>24.4</v>
+        <v>26.4</v>
       </c>
       <c r="C82" s="4">
         <v>25.7</v>
       </c>
       <c r="D82" s="4">
-        <v>24.9</v>
+        <v>26.9</v>
       </c>
       <c r="E82" s="4">
         <v>26.9</v>
       </c>
       <c r="F82" s="4">
-        <v>23.9</v>
+        <v>25.9</v>
       </c>
       <c r="G82" s="4">
-        <v>23.4</v>
+        <v>25.4</v>
       </c>
       <c r="H82" s="4">
         <v>20.2</v>
@@ -6717,22 +6716,22 @@
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>43272</v>
+        <v>44368</v>
       </c>
       <c r="B83" s="4">
-        <v>24.1</v>
+        <v>28.1</v>
       </c>
       <c r="C83" s="4">
-        <v>24.4</v>
+        <v>26.4</v>
       </c>
       <c r="D83" s="4">
-        <v>24.8</v>
+        <v>26.8</v>
       </c>
       <c r="E83" s="4">
-        <v>24.8</v>
+        <v>26.8</v>
       </c>
       <c r="F83" s="4">
-        <v>23.2</v>
+        <v>25.2</v>
       </c>
       <c r="G83" s="4">
         <v>25</v>
@@ -6794,22 +6793,22 @@
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>43273</v>
+        <v>44369</v>
       </c>
       <c r="B84" s="4">
         <v>26.3</v>
       </c>
       <c r="C84" s="4">
-        <v>24.3</v>
+        <v>26.3</v>
       </c>
       <c r="D84" s="4">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E84" s="4">
         <v>27.8</v>
       </c>
       <c r="F84" s="4">
-        <v>23.9</v>
+        <v>25.9</v>
       </c>
       <c r="G84" s="4">
         <v>22.4</v>
@@ -6818,7 +6817,7 @@
         <v>22</v>
       </c>
       <c r="I84" s="4">
-        <v>26.1</v>
+        <v>28.1</v>
       </c>
       <c r="J84" s="4">
         <v>30.7</v>
@@ -6842,7 +6841,7 @@
         <v>36.799999999999997</v>
       </c>
       <c r="Q84" s="4">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R84" s="4">
         <v>37.700000000000003</v>
@@ -6863,15 +6862,15 @@
         <v>27.4</v>
       </c>
       <c r="X84" s="4">
-        <v>26.1</v>
+        <v>28.1</v>
       </c>
       <c r="Y84" s="4">
-        <v>26.1</v>
+        <v>28.1</v>
       </c>
     </row>
     <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>43274</v>
+        <v>44372</v>
       </c>
       <c r="B85" s="4">
         <v>26.4</v>
@@ -6883,13 +6882,13 @@
         <v>27.8</v>
       </c>
       <c r="E85" s="4">
-        <v>24.7</v>
+        <v>26.7</v>
       </c>
       <c r="F85" s="4">
-        <v>24.4</v>
+        <v>26.4</v>
       </c>
       <c r="G85" s="4">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H85" s="4">
         <v>21.7</v>
@@ -6919,7 +6918,7 @@
         <v>35.5</v>
       </c>
       <c r="Q85" s="4">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R85" s="4">
         <v>36.700000000000003</v>
@@ -6948,25 +6947,25 @@
     </row>
     <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>43275</v>
+        <v>44373</v>
       </c>
       <c r="B86" s="4">
-        <v>24.9</v>
+        <v>26.9</v>
       </c>
       <c r="C86" s="4">
         <v>25</v>
       </c>
       <c r="D86" s="4">
-        <v>24.2</v>
+        <v>26.2</v>
       </c>
       <c r="E86" s="4">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F86" s="4">
         <v>22.8</v>
       </c>
       <c r="G86" s="4">
-        <v>24.4</v>
+        <v>26.4</v>
       </c>
       <c r="H86" s="4">
         <v>20.2</v>
@@ -7005,7 +7004,7 @@
         <v>37.799999999999997</v>
       </c>
       <c r="T86" s="4">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U86" s="4">
         <v>32.1</v>
@@ -7014,10 +7013,10 @@
         <v>32.299999999999997</v>
       </c>
       <c r="W86" s="4">
-        <v>28.3</v>
+        <v>21.3</v>
       </c>
       <c r="X86" s="4">
-        <v>26.1</v>
+        <v>28.1</v>
       </c>
       <c r="Y86" s="4">
         <v>25.1</v>
@@ -7025,7 +7024,7 @@
     </row>
     <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <v>43276</v>
+        <v>44372</v>
       </c>
       <c r="B87" s="4">
         <v>27.4</v>
@@ -7037,16 +7036,16 @@
         <v>25.1</v>
       </c>
       <c r="E87" s="4">
-        <v>24.5</v>
+        <v>26.5</v>
       </c>
       <c r="F87" s="4">
-        <v>23.8</v>
+        <v>25.8</v>
       </c>
       <c r="G87" s="4">
-        <v>24.5</v>
+        <v>26.5</v>
       </c>
       <c r="H87" s="4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I87" s="4">
         <v>28</v>
@@ -7097,12 +7096,12 @@
         <v>29</v>
       </c>
       <c r="Y87" s="4">
-        <v>28.3</v>
+        <v>21.3</v>
       </c>
     </row>
     <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <v>43277</v>
+        <v>44373</v>
       </c>
       <c r="B88" s="4">
         <v>26.6</v>
@@ -7114,13 +7113,13 @@
         <v>26.4</v>
       </c>
       <c r="E88" s="4">
-        <v>24.6</v>
+        <v>26.6</v>
       </c>
       <c r="F88" s="4">
-        <v>24.9</v>
+        <v>26.9</v>
       </c>
       <c r="G88" s="4">
-        <v>23.3</v>
+        <v>25.3</v>
       </c>
       <c r="H88" s="4">
         <v>21.8</v>
@@ -7179,7 +7178,7 @@
     </row>
     <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <v>43278</v>
+        <v>44374</v>
       </c>
       <c r="B89" s="4">
         <v>27.9</v>
@@ -7194,13 +7193,13 @@
         <v>25.9</v>
       </c>
       <c r="F89" s="4">
-        <v>24.4</v>
+        <v>26.4</v>
       </c>
       <c r="G89" s="4">
         <v>25.2</v>
       </c>
       <c r="H89" s="4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I89" s="4">
         <v>25.2</v>
@@ -7256,10 +7255,10 @@
     </row>
     <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
-        <v>43279</v>
+        <v>44375</v>
       </c>
       <c r="B90" s="4">
-        <v>24.4</v>
+        <v>26.4</v>
       </c>
       <c r="C90" s="4">
         <v>27.5</v>
@@ -7271,7 +7270,7 @@
         <v>26.5</v>
       </c>
       <c r="F90" s="4">
-        <v>22.5</v>
+        <v>24.3</v>
       </c>
       <c r="G90" s="4">
         <v>25.2</v>
@@ -7333,13 +7332,13 @@
     </row>
     <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
-        <v>43280</v>
+        <v>44376</v>
       </c>
       <c r="B91" s="4">
         <v>26.5</v>
       </c>
       <c r="C91" s="4">
-        <v>26.1</v>
+        <v>28.1</v>
       </c>
       <c r="D91" s="4">
         <v>25.5</v>
@@ -7348,10 +7347,10 @@
         <v>27.5</v>
       </c>
       <c r="F91" s="4">
-        <v>23.4</v>
+        <v>25.4</v>
       </c>
       <c r="G91" s="4">
-        <v>23.2</v>
+        <v>25.2</v>
       </c>
       <c r="H91" s="4">
         <v>21.8</v>
@@ -7410,10 +7409,10 @@
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
-        <v>43281</v>
+        <v>44377</v>
       </c>
       <c r="B92" s="4">
-        <v>24.1</v>
+        <v>28.1</v>
       </c>
       <c r="C92" s="4">
         <v>27.1</v>
@@ -7422,16 +7421,16 @@
         <v>25.7</v>
       </c>
       <c r="E92" s="4">
-        <v>24.2</v>
+        <v>26.2</v>
       </c>
       <c r="F92" s="4">
-        <v>23.4</v>
+        <v>25.4</v>
       </c>
       <c r="G92" s="4">
         <v>22.3</v>
       </c>
       <c r="H92" s="4">
-        <v>23.7</v>
+        <v>25.7</v>
       </c>
       <c r="I92" s="4">
         <v>28.7</v>
